--- a/data/trans_camb/P28A_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28A_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-36,1</t>
+          <t>-39,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-29,23</t>
+          <t>-35,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-34,95</t>
+          <t>-37,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-32,71</t>
+          <t>-33,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-29,07</t>
+          <t>-29,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,87</t>
+          <t>-42,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-34,28</t>
+          <t>-36,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-29,16</t>
+          <t>-32,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-35,97</t>
+          <t>-40,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -27,47</t>
+          <t>-49,67; -28,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,41; -19,1</t>
+          <t>-46,35; -19,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-44,94; -22,68</t>
+          <t>-49,36; -17,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,44; -25,22</t>
+          <t>-42,53; -24,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,77; -21,77</t>
+          <t>-39,22; -20,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,68; -19,86</t>
+          <t>-50,92; -33,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,12; -28,86</t>
+          <t>-43,06; -29,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -23,07</t>
+          <t>-40,63; -24,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-42,29; -27,1</t>
+          <t>-47,56; -30,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-59,47%</t>
+          <t>-60,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,15%</t>
+          <t>-54,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-57,57%</t>
+          <t>-58,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-52,95%</t>
+          <t>-54,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,05%</t>
+          <t>-48,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,68%</t>
+          <t>-68,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-55,93%</t>
+          <t>-57,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,57%</t>
+          <t>-51,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-58,69%</t>
+          <t>-63,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,3; -49,15</t>
+          <t>-71,48; -47,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,39; -32,63</t>
+          <t>-66,8; -31,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,07; -38,84</t>
+          <t>-71,96; -29,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,27; -41,93</t>
+          <t>-64,74; -41,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,7; -37,51</t>
+          <t>-59,7; -35,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,31; -33,64</t>
+          <t>-77,5; -58,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,81; -48,56</t>
+          <t>-65,38; -48,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,89; -38,77</t>
+          <t>-60,6; -39,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,05; -45,23</t>
+          <t>-71,71; -49,24</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-30,68</t>
+          <t>-26,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-27,18</t>
+          <t>-25,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-31,91</t>
+          <t>-29,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-28,84</t>
+          <t>-29,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,96</t>
+          <t>-26,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,05</t>
+          <t>-33,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-29,68</t>
+          <t>-28,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,43</t>
+          <t>-26,31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-33,69</t>
+          <t>-31,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -21,31</t>
+          <t>-38,32; -15,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -17,54</t>
+          <t>-35,88; -13,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -22,72</t>
+          <t>-39,61; -16,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -20,49</t>
+          <t>-40,66; -18,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,16; -12,52</t>
+          <t>-38,41; -16,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -26,69</t>
+          <t>-44,36; -22,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,54; -23,15</t>
+          <t>-35,32; -20,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,43; -17,87</t>
+          <t>-33,82; -17,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-39,98; -28,05</t>
+          <t>-39,08; -22,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-61,72%</t>
+          <t>-55,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,68%</t>
+          <t>-52,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-64,19%</t>
+          <t>-60,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-51,39%</t>
+          <t>-53,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,35%</t>
+          <t>-48,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-62,46%</t>
+          <t>-60,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-55,88%</t>
+          <t>-54,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-45,98%</t>
+          <t>-50,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-63,43%</t>
+          <t>-60,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,6; -47,64</t>
+          <t>-70,53; -36,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,39; -39,64</t>
+          <t>-66,52; -31,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,88; -50,72</t>
+          <t>-73,9; -39,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,38; -39,61</t>
+          <t>-66,76; -35,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,13; -24,53</t>
+          <t>-62,54; -32,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,53; -50,8</t>
+          <t>-72,21; -44,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,22; -46,77</t>
+          <t>-63,48; -42,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,08; -36,41</t>
+          <t>-60,73; -36,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,86; -54,72</t>
+          <t>-69,84; -46,59</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-45,61</t>
+          <t>-61,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-42,17</t>
+          <t>-70,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-35,69</t>
+          <t>-50,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-14,37</t>
+          <t>-21,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-29,34</t>
+          <t>-31,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,59</t>
+          <t>-21,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-30,84</t>
+          <t>-41,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-36,0</t>
+          <t>-51,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-28,5</t>
+          <t>-35,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-63,93; -26,87</t>
+          <t>-80,29; -35,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -24,25</t>
+          <t>-87,54; -44,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-55,91; -9,49</t>
+          <t>-78,73; -2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 3,8</t>
+          <t>-40,71; 1,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,81; -13,06</t>
+          <t>-49,54; -12,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,55; -2,57</t>
+          <t>-39,99; 1,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-44,77; -18,64</t>
+          <t>-58,2; -23,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,85; -23,18</t>
+          <t>-65,33; -33,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-41,12; -12,94</t>
+          <t>-54,61; -10,48</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-70,18%</t>
+          <t>-76,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-64,89%</t>
+          <t>-86,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-54,92%</t>
+          <t>-61,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,42%</t>
+          <t>-50,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-64,14%</t>
+          <t>-74,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-45,0%</t>
+          <t>-50,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-55,15%</t>
+          <t>-67,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-64,36%</t>
+          <t>-82,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-50,96%</t>
+          <t>-58,03%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,01; -46,96</t>
+          <t>-91,77; -49,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,72; -40,95</t>
+          <t>-96,8; -59,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,76; -13,95</t>
+          <t>-92,27; -0,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 13,17</t>
+          <t>-77,76; 9,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,64; -32,34</t>
+          <t>-92,9; -31,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,02; -6,83</t>
+          <t>-79,16; 11,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,93; -37,09</t>
+          <t>-83,03; -44,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,31; -45,35</t>
+          <t>-92,98; -59,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,02; -23,08</t>
+          <t>-81,34; -13,35</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-35,14</t>
+          <t>-36,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-30,15</t>
+          <t>-35,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-33,88</t>
+          <t>-35,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-29,39</t>
+          <t>-31,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-25,94</t>
+          <t>-28,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-34,51</t>
+          <t>-36,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-32,1</t>
+          <t>-33,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-28,05</t>
+          <t>-31,83</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-34,22</t>
+          <t>-36,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-41,27; -29,26</t>
+          <t>-44,48; -28,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-36,23; -23,07</t>
+          <t>-43,72; -26,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,75; -26,51</t>
+          <t>-44,32; -24,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,44; -23,75</t>
+          <t>-37,73; -24,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,24; -20,68</t>
+          <t>-34,84; -22,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -25,72</t>
+          <t>-43,43; -30,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -28,12</t>
+          <t>-38,69; -28,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-31,77; -23,63</t>
+          <t>-36,84; -25,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -28,63</t>
+          <t>-41,42; -30,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-61,75%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-52,97%</t>
+          <t>-58,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-59,52%</t>
+          <t>-59,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-50,71%</t>
+          <t>-54,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-44,75%</t>
+          <t>-50,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,54%</t>
+          <t>-64,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-55,85%</t>
+          <t>-57,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-48,81%</t>
+          <t>-54,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-59,55%</t>
+          <t>-61,88%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,17; -53,7</t>
+          <t>-69,81; -51,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,0; -42,86</t>
+          <t>-68,02; -44,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,36; -48,23</t>
+          <t>-70,29; -42,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,39; -43,17</t>
+          <t>-62,66; -44,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -36,54</t>
+          <t>-58,26; -40,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,47; -42,9</t>
+          <t>-72,15; -55,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,84; -50,33</t>
+          <t>-63,7; -51,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -42,35</t>
+          <t>-60,52; -46,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,16; -50,6</t>
+          <t>-68,52; -52,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
